--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="401">
   <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
@@ -2811,6 +2811,18 @@
   </si>
   <si>
     <t>Ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3213,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3527,7 +3539,9 @@
       <c r="J15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="8">
+        <v>45504</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -3558,7 +3572,9 @@
       <c r="J16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="8">
+        <v>45504</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="55.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -3589,7 +3605,9 @@
       <c r="J19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
@@ -3620,7 +3638,9 @@
       <c r="J20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
@@ -3651,7 +3671,9 @@
       <c r="J21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -3682,7 +3704,9 @@
       <c r="J22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -3713,7 +3737,9 @@
       <c r="J23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -3744,7 +3770,9 @@
       <c r="J24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -3775,7 +3803,9 @@
       <c r="J25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -3806,7 +3836,9 @@
       <c r="J26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -3837,7 +3869,9 @@
       <c r="J27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -3868,7 +3902,9 @@
       <c r="J28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -3899,7 +3935,9 @@
       <c r="J29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
@@ -3930,7 +3968,9 @@
       <c r="J32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -3961,7 +4001,9 @@
       <c r="J33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -3992,7 +4034,9 @@
       <c r="J34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -4023,7 +4067,9 @@
       <c r="J35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -4054,7 +4100,9 @@
       <c r="J36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="2"/>
+      <c r="K36" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -4085,7 +4133,9 @@
       <c r="J37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="2"/>
+      <c r="K37" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -4116,7 +4166,9 @@
       <c r="J38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -4147,7 +4199,9 @@
       <c r="J39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="2"/>
+      <c r="K39" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -4178,7 +4232,9 @@
       <c r="J40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -4209,7 +4265,9 @@
       <c r="J41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="K41" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
@@ -4240,7 +4298,9 @@
       <c r="J42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K42" s="2"/>
+      <c r="K42" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -4271,7 +4331,9 @@
       <c r="J45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="K45" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
@@ -4302,7 +4364,9 @@
       <c r="J46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="2"/>
+      <c r="K46" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -4333,7 +4397,9 @@
       <c r="J47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="2"/>
+      <c r="K47" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -4364,7 +4430,9 @@
       <c r="J48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K48" s="2"/>
+      <c r="K48" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -4395,7 +4463,9 @@
       <c r="J49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="2"/>
+      <c r="K49" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -4426,7 +4496,9 @@
       <c r="J50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K50" s="2"/>
+      <c r="K50" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
@@ -4457,7 +4529,9 @@
       <c r="J51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K51" s="2"/>
+      <c r="K51" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
@@ -4488,7 +4562,9 @@
       <c r="J52" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K52" s="2"/>
+      <c r="K52" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
@@ -4519,7 +4595,9 @@
       <c r="J53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K53" s="2"/>
+      <c r="K53" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
@@ -4550,7 +4628,9 @@
       <c r="J54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K54" s="2"/>
+      <c r="K54" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
@@ -4581,7 +4661,9 @@
       <c r="J55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="2"/>
+      <c r="K55" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
@@ -4609,8 +4691,12 @@
       <c r="I56" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" s="8">
+        <v>45505</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
@@ -4641,7 +4727,6 @@
       <c r="J59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
@@ -4672,7 +4757,6 @@
       <c r="J60" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
@@ -4703,7 +4787,6 @@
       <c r="J61" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
@@ -4734,7 +4817,6 @@
       <c r="J62" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
@@ -4765,7 +4847,9 @@
       <c r="J63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K63" s="2"/>
+      <c r="K63" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
@@ -4796,7 +4880,9 @@
       <c r="J64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K64" s="2"/>
+      <c r="K64" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
@@ -4827,7 +4913,9 @@
       <c r="J65" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K65" s="2"/>
+      <c r="K65" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
@@ -4858,7 +4946,9 @@
       <c r="J66" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K66" s="2"/>
+      <c r="K66" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
@@ -4889,7 +4979,9 @@
       <c r="J67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K67" s="2"/>
+      <c r="K67" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
@@ -4920,7 +5012,9 @@
       <c r="J68" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K68" s="2"/>
+      <c r="K68" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
@@ -4951,7 +5045,9 @@
       <c r="J69" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K69" s="2"/>
+      <c r="K69" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
@@ -4980,7 +5076,9 @@
         <v>393</v>
       </c>
       <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
+      <c r="K70" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
@@ -5011,7 +5109,9 @@
       <c r="J73" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K73" s="2"/>
+      <c r="K73" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
@@ -5042,7 +5142,9 @@
       <c r="J74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K74" s="2"/>
+      <c r="K74" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
@@ -5073,7 +5175,9 @@
       <c r="J77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K77" s="2"/>
+      <c r="K77" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
@@ -5104,7 +5208,9 @@
       <c r="J78" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K78" s="2"/>
+      <c r="K78" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="81" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
@@ -5137,7 +5243,9 @@
       <c r="J81" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K81" s="2"/>
+      <c r="K81" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="82" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
@@ -5170,7 +5278,9 @@
       <c r="J82" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K82" s="2"/>
+      <c r="K82" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="83" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
@@ -5203,7 +5313,9 @@
       <c r="J83" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K83" s="2"/>
+      <c r="K83" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
@@ -5236,7 +5348,9 @@
       <c r="J84" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K84" s="2"/>
+      <c r="K84" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="85" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
@@ -5269,7 +5383,9 @@
       <c r="J85" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K85" s="2"/>
+      <c r="K85" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
@@ -5302,7 +5418,9 @@
       <c r="J86" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K86" s="2"/>
+      <c r="K86" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="87" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
@@ -5335,7 +5453,9 @@
       <c r="J87" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K87" s="2"/>
+      <c r="K87" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="88" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
@@ -5368,7 +5488,9 @@
       <c r="J88" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K88" s="2"/>
+      <c r="K88" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="89" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
@@ -5401,7 +5523,9 @@
       <c r="J89" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K89" s="2"/>
+      <c r="K89" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="90" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
@@ -5434,7 +5558,9 @@
       <c r="J90" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K90" s="2"/>
+      <c r="K90" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="91" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
@@ -5467,7 +5593,9 @@
       <c r="J91" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K91" s="2"/>
+      <c r="K91" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="92" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
@@ -5500,7 +5628,9 @@
       <c r="J92" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K92" s="2"/>
+      <c r="K92" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="93" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
@@ -5533,7 +5663,9 @@
       <c r="J93" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K93" s="2"/>
+      <c r="K93" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
@@ -5566,7 +5698,9 @@
       <c r="J94" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K94" s="2"/>
+      <c r="K94" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="95" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
@@ -5597,7 +5731,9 @@
       <c r="J95" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K95" s="2"/>
+      <c r="K95" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
@@ -5628,7 +5764,9 @@
       <c r="J96" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K96" s="2"/>
+      <c r="K96" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="97" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
@@ -5659,7 +5797,9 @@
       <c r="J97" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K97" s="2"/>
+      <c r="K97" s="8">
+        <v>45506</v>
+      </c>
     </row>
     <row r="100" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
@@ -5692,7 +5832,9 @@
       <c r="J100" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K100" s="2"/>
+      <c r="K100" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="101" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
@@ -5725,7 +5867,9 @@
       <c r="J101" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K101" s="2"/>
+      <c r="K101" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="102" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
@@ -5758,7 +5902,9 @@
       <c r="J102" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K102" s="2"/>
+      <c r="K102" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="103" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
@@ -5791,7 +5937,9 @@
       <c r="J103" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K103" s="2"/>
+      <c r="K103" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="104" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
@@ -5824,7 +5972,9 @@
       <c r="J104" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K104" s="2"/>
+      <c r="K104" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="105" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
@@ -5857,7 +6007,9 @@
       <c r="J105" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K105" s="2"/>
+      <c r="K105" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
@@ -5890,7 +6042,9 @@
       <c r="J106" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K106" s="2"/>
+      <c r="K106" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="107" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
@@ -5921,7 +6075,9 @@
       <c r="J107" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K107" s="2"/>
+      <c r="K107" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
@@ -5952,7 +6108,9 @@
       <c r="J108" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K108" s="2"/>
+      <c r="K108" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
@@ -5983,7 +6141,9 @@
       <c r="J109" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K109" s="2"/>
+      <c r="K109" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
@@ -6008,11 +6168,15 @@
         <v>250</v>
       </c>
       <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
+      <c r="I112" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J112" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K112" s="2"/>
+      <c r="K112" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="113" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
@@ -6037,11 +6201,15 @@
         <v>250</v>
       </c>
       <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
+      <c r="I113" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J113" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="114" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
@@ -6066,11 +6234,15 @@
         <v>250</v>
       </c>
       <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
+      <c r="I114" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J114" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K114" s="2"/>
+      <c r="K114" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
@@ -6095,11 +6267,15 @@
         <v>250</v>
       </c>
       <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
+      <c r="I115" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J115" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K115" s="2"/>
+      <c r="K115" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
@@ -6124,11 +6300,15 @@
         <v>253</v>
       </c>
       <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+      <c r="I116" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J116" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K116" s="2"/>
+      <c r="K116" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
@@ -6153,11 +6333,15 @@
         <v>254</v>
       </c>
       <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
+      <c r="I117" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J117" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K117" s="2"/>
+      <c r="K117" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="118" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
@@ -6182,11 +6366,15 @@
         <v>250</v>
       </c>
       <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
+      <c r="I118" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J118" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K118" s="2"/>
+      <c r="K118" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="119" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
@@ -6211,11 +6399,15 @@
         <v>250</v>
       </c>
       <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
+      <c r="I119" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J119" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K119" s="2"/>
+      <c r="K119" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
@@ -6240,11 +6432,15 @@
         <v>251</v>
       </c>
       <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
+      <c r="I120" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J120" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K120" s="2"/>
+      <c r="K120" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="121" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
@@ -6269,11 +6465,15 @@
         <v>252</v>
       </c>
       <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
+      <c r="I121" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J121" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121" s="8">
+        <v>45507</v>
+      </c>
     </row>
     <row r="124" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
@@ -6298,11 +6498,15 @@
         <v>277</v>
       </c>
       <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
+      <c r="I124" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="J124" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K124" s="2"/>
+      <c r="K124" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="125" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
@@ -6327,11 +6531,15 @@
         <v>275</v>
       </c>
       <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
+      <c r="I125" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="J125" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K125" s="2"/>
+      <c r="K125" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="126" spans="1:11" ht="79.2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
@@ -6356,11 +6564,15 @@
         <v>279</v>
       </c>
       <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
+      <c r="I126" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="J126" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K126" s="2"/>
+      <c r="K126" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="127" spans="1:11" ht="66" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
@@ -6385,11 +6597,15 @@
         <v>281</v>
       </c>
       <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
+      <c r="I127" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="J127" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K127" s="2"/>
+      <c r="K127" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="128" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
@@ -6414,11 +6630,15 @@
         <v>283</v>
       </c>
       <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
+      <c r="I128" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="J128" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K128" s="2"/>
+      <c r="K128" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="129" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
@@ -6443,11 +6663,15 @@
         <v>285</v>
       </c>
       <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
+      <c r="I129" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="J129" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K129" s="2"/>
+      <c r="K129" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
@@ -6472,11 +6696,15 @@
         <v>287</v>
       </c>
       <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
+      <c r="I130" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="J130" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K130" s="2"/>
+      <c r="K130" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
@@ -6501,11 +6729,15 @@
         <v>296</v>
       </c>
       <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
+      <c r="I131" s="2" t="s">
+        <v>399</v>
+      </c>
       <c r="J131" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K131" s="2"/>
+      <c r="K131" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="134" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
@@ -6530,11 +6762,15 @@
         <v>311</v>
       </c>
       <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
+      <c r="I134" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J134" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K134" s="2"/>
+      <c r="K134" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="135" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
@@ -6559,11 +6795,15 @@
         <v>311</v>
       </c>
       <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
+      <c r="I135" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J135" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K135" s="2"/>
+      <c r="K135" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="136" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
@@ -6588,11 +6828,15 @@
         <v>311</v>
       </c>
       <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
+      <c r="I136" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J136" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K136" s="2"/>
+      <c r="K136" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="137" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
@@ -6617,11 +6861,15 @@
         <v>311</v>
       </c>
       <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
+      <c r="I137" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J137" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K137" s="2"/>
+      <c r="K137" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="138" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
@@ -6646,11 +6894,15 @@
         <v>311</v>
       </c>
       <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
+      <c r="I138" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J138" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K138" s="2"/>
+      <c r="K138" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="139" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
@@ -6675,11 +6927,15 @@
         <v>311</v>
       </c>
       <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
+      <c r="I139" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J139" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K139" s="2"/>
+      <c r="K139" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
@@ -6704,11 +6960,15 @@
         <v>314</v>
       </c>
       <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
+      <c r="I140" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J140" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K140" s="2"/>
+      <c r="K140" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
@@ -6733,11 +6993,15 @@
         <v>313</v>
       </c>
       <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
+      <c r="I141" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J141" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K141" s="2"/>
+      <c r="K141" s="8">
+        <v>45508</v>
+      </c>
     </row>
     <row r="144" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
@@ -6762,11 +7026,15 @@
         <v>322</v>
       </c>
       <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
+      <c r="I144" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J144" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K144" s="2"/>
+      <c r="K144" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
@@ -6791,11 +7059,15 @@
         <v>324</v>
       </c>
       <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
+      <c r="I145" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="J145" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K145" s="2"/>
+      <c r="K145" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="148" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
@@ -6822,11 +7094,15 @@
       <c r="H148" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I148" s="2"/>
+      <c r="I148" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J148" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K148" s="2"/>
+      <c r="K148" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="149" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
@@ -6853,11 +7129,15 @@
       <c r="H149" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I149" s="2"/>
+      <c r="I149" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J149" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K149" s="2"/>
+      <c r="K149" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="150" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
@@ -6884,11 +7164,15 @@
       <c r="H150" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I150" s="2"/>
+      <c r="I150" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J150" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K150" s="2"/>
+      <c r="K150" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="151" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
@@ -6915,11 +7199,15 @@
       <c r="H151" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I151" s="2"/>
+      <c r="I151" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J151" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K151" s="2"/>
+      <c r="K151" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="152" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
@@ -6946,11 +7234,15 @@
       <c r="H152" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I152" s="2"/>
+      <c r="I152" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J152" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K152" s="2"/>
+      <c r="K152" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="153" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
@@ -6977,11 +7269,15 @@
       <c r="H153" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I153" s="2"/>
+      <c r="I153" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J153" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K153" s="2"/>
+      <c r="K153" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="154" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
@@ -7008,11 +7304,15 @@
       <c r="H154" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I154" s="2"/>
+      <c r="I154" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J154" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K154" s="2"/>
+      <c r="K154" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="155" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
@@ -7037,11 +7337,15 @@
         <v>311</v>
       </c>
       <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
+      <c r="I155" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J155" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K155" s="2"/>
+      <c r="K155" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
@@ -7066,11 +7370,15 @@
         <v>345</v>
       </c>
       <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
+      <c r="I156" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J156" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K156" s="2"/>
+      <c r="K156" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
@@ -7095,11 +7403,15 @@
         <v>314</v>
       </c>
       <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
+      <c r="I157" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J157" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K157" s="2"/>
+      <c r="K157" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="160" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
@@ -7124,11 +7436,15 @@
         <v>379</v>
       </c>
       <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
+      <c r="I160" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J160" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K160" s="2"/>
+      <c r="K160" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="161" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
@@ -7153,11 +7469,15 @@
         <v>364</v>
       </c>
       <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
+      <c r="I161" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J161" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K161" s="2"/>
+      <c r="K161" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="162" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
@@ -7182,11 +7502,15 @@
         <v>379</v>
       </c>
       <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
+      <c r="I162" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J162" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K162" s="2"/>
+      <c r="K162" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="163" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
@@ -7211,11 +7535,15 @@
         <v>364</v>
       </c>
       <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
+      <c r="I163" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J163" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K163" s="2"/>
+      <c r="K163" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="164" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
@@ -7240,11 +7568,15 @@
         <v>379</v>
       </c>
       <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
+      <c r="I164" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J164" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K164" s="2"/>
+      <c r="K164" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="165" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
@@ -7269,11 +7601,15 @@
         <v>364</v>
       </c>
       <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
+      <c r="I165" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J165" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K165" s="2"/>
+      <c r="K165" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="166" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
@@ -7298,11 +7634,15 @@
         <v>379</v>
       </c>
       <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
+      <c r="I166" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J166" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K166" s="2"/>
+      <c r="K166" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="167" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
@@ -7327,11 +7667,15 @@
         <v>364</v>
       </c>
       <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
+      <c r="I167" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J167" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K167" s="2"/>
+      <c r="K167" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="168" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
@@ -7356,11 +7700,15 @@
         <v>379</v>
       </c>
       <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
+      <c r="I168" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J168" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K168" s="2"/>
+      <c r="K168" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="169" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
@@ -7385,11 +7733,15 @@
         <v>364</v>
       </c>
       <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
+      <c r="I169" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J169" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K169" s="2"/>
+      <c r="K169" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="170" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
@@ -7414,11 +7766,15 @@
         <v>384</v>
       </c>
       <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
+      <c r="I170" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J170" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K170" s="2"/>
+      <c r="K170" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="171" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
@@ -7443,11 +7799,15 @@
         <v>385</v>
       </c>
       <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
+      <c r="I171" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J171" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K171" s="2"/>
+      <c r="K171" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="172" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
@@ -7472,11 +7832,15 @@
         <v>384</v>
       </c>
       <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
+      <c r="I172" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J172" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K172" s="2"/>
+      <c r="K172" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="173" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
@@ -7501,11 +7865,15 @@
         <v>385</v>
       </c>
       <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
+      <c r="I173" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J173" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K173" s="2"/>
+      <c r="K173" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="174" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
@@ -7530,11 +7898,15 @@
         <v>387</v>
       </c>
       <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
+      <c r="I174" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J174" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K174" s="2"/>
+      <c r="K174" s="8">
+        <v>45509</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
@@ -7559,11 +7931,15 @@
         <v>386</v>
       </c>
       <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
+      <c r="I175" s="2" t="s">
+        <v>398</v>
+      </c>
       <c r="J175" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K175" s="2"/>
+      <c r="K175" s="8">
+        <v>45509</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
